--- a/Repository/BusinessObjects/GroceryOrder/requirement/GroceryOrder_ERUMS_to_Canonical_Mapping_v1.12.2.xlsx
+++ b/Repository/BusinessObjects/GroceryOrder/requirement/GroceryOrder_ERUMS_to_Canonical_Mapping_v1.12.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Workshop\Repository\BusinessObjects\GroceryOrder\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A99CD-AB13-4393-A765-30A378DE3B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7358132-56EB-4363-85BD-380B17660307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9659,6 +9659,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9683,8 +9685,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -10663,10 +10663,10 @@
     </row>
     <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="10"/>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="98"/>
+      <c r="G13" s="100"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10676,12 +10676,12 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
@@ -11092,10 +11092,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
@@ -19469,7 +19469,7 @@
   <dimension ref="A1:XFC1065"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19493,20 +19493,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100"/>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103" t="s">
         <v>758</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="104" t="s">
         <v>759</v>
       </c>
-      <c r="J1" s="102"/>
+      <c r="J1" s="104"/>
       <c r="K1" s="59" t="s">
         <v>760</v>
       </c>
@@ -19516,25 +19516,25 @@
       <c r="M1" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="105" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
-      <c r="N2" s="103"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -19558,7 +19558,7 @@
       <c r="G3" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="25" t="s">
         <v>770</v>
       </c>
@@ -19568,10 +19568,10 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="103"/>
+      <c r="N3" s="105"/>
       <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="1:16" s="104" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="96" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>2834</v>
       </c>
@@ -19594,7 +19594,7 @@
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
       <c r="N4" s="95"/>
-      <c r="P4" s="105"/>
+      <c r="P4" s="97"/>
     </row>
     <row r="5" spans="1:16" s="27" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
@@ -19613,7 +19613,7 @@
         <v>774</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>776</v>
@@ -49690,52 +49690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Owner xmlns="17f6712d-36fa-4544-bbf8-c776741600d7" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="ce8cb234-d968-4f9b-88fc-887d969c38ea">
-      <UserInfo>
-        <DisplayName>Gopalakrishnan Subramanian</DisplayName>
-        <AccountId>3810</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Karthik Renganathan</DisplayName>
-        <AccountId>1135</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Shefeek Jalal</DisplayName>
-        <AccountId>3803</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sankha Basu</DisplayName>
-        <AccountId>3530</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Yavana Rani Kanagaraju</DisplayName>
-        <AccountId>4351</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004558AB7511A8364BA17F7F9A761A7BA6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d91984f65a07e3748be487f2f0a488d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce8cb234-d968-4f9b-88fc-887d969c38ea" xmlns:ns3="17f6712d-36fa-4544-bbf8-c776741600d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae3e439a7ddf05645d06bf7851ab4781" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -49971,10 +49925,68 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Owner xmlns="17f6712d-36fa-4544-bbf8-c776741600d7" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="ce8cb234-d968-4f9b-88fc-887d969c38ea">
+      <UserInfo>
+        <DisplayName>Gopalakrishnan Subramanian</DisplayName>
+        <AccountId>3810</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Karthik Renganathan</DisplayName>
+        <AccountId>1135</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Shefeek Jalal</DisplayName>
+        <AccountId>3803</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sankha Basu</DisplayName>
+        <AccountId>3530</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Yavana Rani Kanagaraju</DisplayName>
+        <AccountId>4351</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD796952-30A1-454D-9049-EC32568D696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9083AF46-DD1A-463E-9C54-A5C2B1850E54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ce8cb234-d968-4f9b-88fc-887d969c38ea"/>
+    <ds:schemaRef ds:uri="17f6712d-36fa-4544-bbf8-c776741600d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49992,21 +50004,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9083AF46-DD1A-463E-9C54-A5C2B1850E54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD796952-30A1-454D-9049-EC32568D696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="ce8cb234-d968-4f9b-88fc-887d969c38ea"/>
-    <ds:schemaRef ds:uri="17f6712d-36fa-4544-bbf8-c776741600d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>